--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H2">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>83.06085246108809</v>
+        <v>49.07181777323933</v>
       </c>
       <c r="R2">
-        <v>747.5476721497929</v>
+        <v>441.6463599591539</v>
       </c>
       <c r="S2">
-        <v>0.01088667662287786</v>
+        <v>0.00530014352049079</v>
       </c>
       <c r="T2">
-        <v>0.01088667662287786</v>
+        <v>0.005300143520490788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H3">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I3">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J3">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>733.4922626066134</v>
+        <v>423.3131628960182</v>
       </c>
       <c r="R3">
-        <v>6601.430363459521</v>
+        <v>3809.818466064164</v>
       </c>
       <c r="S3">
-        <v>0.09613786557418384</v>
+        <v>0.04572116174358069</v>
       </c>
       <c r="T3">
-        <v>0.09613786557418387</v>
+        <v>0.04572116174358068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H4">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I4">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J4">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>147.7952078919741</v>
+        <v>149.787327967954</v>
       </c>
       <c r="R4">
-        <v>1330.156871027767</v>
+        <v>1348.085951711586</v>
       </c>
       <c r="S4">
-        <v>0.01937132339792326</v>
+        <v>0.01617821331684844</v>
       </c>
       <c r="T4">
-        <v>0.01937132339792326</v>
+        <v>0.01617821331684843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H5">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I5">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J5">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>599.1830823771272</v>
+        <v>219.3410452813453</v>
       </c>
       <c r="R5">
-        <v>5392.647741394146</v>
+        <v>1974.069407532108</v>
       </c>
       <c r="S5">
-        <v>0.07853413807418944</v>
+        <v>0.02369056360002165</v>
       </c>
       <c r="T5">
-        <v>0.07853413807418944</v>
+        <v>0.02369056360002165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H6">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I6">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J6">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>49.15046016217844</v>
+        <v>17.84732198079311</v>
       </c>
       <c r="R6">
-        <v>442.354141459606</v>
+        <v>160.625897827138</v>
       </c>
       <c r="S6">
-        <v>0.006442086130791294</v>
+        <v>0.001927651598148025</v>
       </c>
       <c r="T6">
-        <v>0.006442086130791294</v>
+        <v>0.001927651598148024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H7">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I7">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J7">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>54.57240796239732</v>
+        <v>63.25355331427934</v>
       </c>
       <c r="R7">
-        <v>491.1516716615759</v>
+        <v>569.281979828514</v>
       </c>
       <c r="S7">
-        <v>0.007152733693609886</v>
+        <v>0.006831882859850405</v>
       </c>
       <c r="T7">
-        <v>0.007152733693609887</v>
+        <v>0.006831882859850404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>137.557972</v>
       </c>
       <c r="I8">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J8">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>63.17926079160488</v>
+        <v>64.67613607447066</v>
       </c>
       <c r="R8">
-        <v>568.613347124444</v>
+        <v>582.085224670236</v>
       </c>
       <c r="S8">
-        <v>0.008280822567200249</v>
+        <v>0.006985533022834622</v>
       </c>
       <c r="T8">
-        <v>0.008280822567200249</v>
+        <v>0.006985533022834621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>137.557972</v>
       </c>
       <c r="I9">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J9">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>557.9222651195084</v>
@@ -1013,10 +1013,10 @@
         <v>5021.300386075576</v>
       </c>
       <c r="S9">
-        <v>0.07312613705602278</v>
+        <v>0.06026000691629779</v>
       </c>
       <c r="T9">
-        <v>0.07312613705602279</v>
+        <v>0.06026000691629779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>137.557972</v>
       </c>
       <c r="I10">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J10">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>112.4186871008929</v>
+        <v>197.418111769436</v>
       </c>
       <c r="R10">
-        <v>1011.768183908036</v>
+        <v>1776.763005924924</v>
       </c>
       <c r="S10">
-        <v>0.01473456937381255</v>
+        <v>0.02132271379791667</v>
       </c>
       <c r="T10">
-        <v>0.01473456937381255</v>
+        <v>0.02132271379791667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>137.557972</v>
       </c>
       <c r="I11">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J11">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>455.7615663908186</v>
+        <v>289.0891745010747</v>
       </c>
       <c r="R11">
-        <v>4101.854097517368</v>
+        <v>2601.802570509672</v>
       </c>
       <c r="S11">
-        <v>0.05973606871850448</v>
+        <v>0.03122391190308574</v>
       </c>
       <c r="T11">
-        <v>0.0597360687185045</v>
+        <v>0.03122391190308574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>137.557972</v>
       </c>
       <c r="I12">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J12">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>37.38571960922756</v>
+        <v>23.52258133841022</v>
       </c>
       <c r="R12">
-        <v>336.471476483048</v>
+        <v>211.703232045692</v>
       </c>
       <c r="S12">
-        <v>0.004900097069072535</v>
+        <v>0.002540624389381828</v>
       </c>
       <c r="T12">
-        <v>0.004900097069072535</v>
+        <v>0.002540624389381828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>137.557972</v>
       </c>
       <c r="I13">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J13">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>41.50986045197867</v>
+        <v>83.36751330983066</v>
       </c>
       <c r="R13">
-        <v>373.588744067808</v>
+        <v>750.307619788476</v>
       </c>
       <c r="S13">
-        <v>0.005440642781907206</v>
+        <v>0.009004349248490464</v>
       </c>
       <c r="T13">
-        <v>0.005440642781907206</v>
+        <v>0.009004349248490464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H14">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I14">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J14">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>67.85797632392199</v>
+        <v>46.38487306436199</v>
       </c>
       <c r="R14">
-        <v>610.721786915298</v>
+        <v>417.4638575792579</v>
       </c>
       <c r="S14">
-        <v>0.008894055654768597</v>
+        <v>0.005009932290605609</v>
       </c>
       <c r="T14">
-        <v>0.008894055654768598</v>
+        <v>0.005009932290605608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H15">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I15">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J15">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>599.238980999588</v>
+        <v>400.1345011945586</v>
       </c>
       <c r="R15">
-        <v>5393.150828996292</v>
+        <v>3601.210510751028</v>
       </c>
       <c r="S15">
-        <v>0.078541464633072</v>
+        <v>0.04321768338868603</v>
       </c>
       <c r="T15">
-        <v>0.07854146463307203</v>
+        <v>0.04321768338868603</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H16">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I16">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J16">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>120.743809156318</v>
+        <v>141.585669936858</v>
       </c>
       <c r="R16">
-        <v>1086.694282406862</v>
+        <v>1274.271029431722</v>
       </c>
       <c r="S16">
-        <v>0.01582573216564473</v>
+        <v>0.01529236953434033</v>
       </c>
       <c r="T16">
-        <v>0.01582573216564473</v>
+        <v>0.01529236953434033</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H17">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I17">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J17">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>489.512811546084</v>
+        <v>207.330948900124</v>
       </c>
       <c r="R17">
-        <v>4405.615303914756</v>
+        <v>1865.978540101116</v>
       </c>
       <c r="S17">
-        <v>0.06415980000391336</v>
+        <v>0.02239337842523251</v>
       </c>
       <c r="T17">
-        <v>0.06415980000391337</v>
+        <v>0.02239337842523251</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H18">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I18">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J18">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>40.154304502924</v>
+        <v>16.87008556404733</v>
       </c>
       <c r="R18">
-        <v>361.388740526316</v>
+        <v>151.830770076426</v>
       </c>
       <c r="S18">
-        <v>0.005262971847594438</v>
+        <v>0.001822102354259461</v>
       </c>
       <c r="T18">
-        <v>0.005262971847594438</v>
+        <v>0.001822102354259461</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H19">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I19">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J19">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>44.583856988304</v>
+        <v>59.79008266844199</v>
       </c>
       <c r="R19">
-        <v>401.254712894736</v>
+        <v>538.110744015978</v>
       </c>
       <c r="S19">
-        <v>0.005843547462502655</v>
+        <v>0.00645780070159876</v>
       </c>
       <c r="T19">
-        <v>0.005843547462502656</v>
+        <v>0.00645780070159876</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H20">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I20">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J20">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>17.56648405576611</v>
+        <v>10.30054870342867</v>
       </c>
       <c r="R20">
-        <v>158.098356501895</v>
+        <v>92.704938330858</v>
       </c>
       <c r="S20">
-        <v>0.002302415947460411</v>
+        <v>0.001112540536408447</v>
       </c>
       <c r="T20">
-        <v>0.002302415947460411</v>
+        <v>0.001112540536408447</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H21">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I21">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J21">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>155.1257873514255</v>
+        <v>88.85666048406978</v>
       </c>
       <c r="R21">
-        <v>1396.13208616283</v>
+        <v>799.7099443566281</v>
       </c>
       <c r="S21">
-        <v>0.02033213280053257</v>
+        <v>0.00959722045540201</v>
       </c>
       <c r="T21">
-        <v>0.02033213280053258</v>
+        <v>0.009597220455402008</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H22">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I22">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J22">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>31.25710952905611</v>
+        <v>31.44150220845801</v>
       </c>
       <c r="R22">
-        <v>281.313985761505</v>
+        <v>282.9735198761221</v>
       </c>
       <c r="S22">
-        <v>0.004096828211197607</v>
+        <v>0.003395930327560292</v>
       </c>
       <c r="T22">
-        <v>0.004096828211197607</v>
+        <v>0.00339593032756029</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H23">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I23">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J23">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>126.7208287802433</v>
+        <v>46.04135779159067</v>
       </c>
       <c r="R23">
-        <v>1140.48745902219</v>
+        <v>414.372220124316</v>
       </c>
       <c r="S23">
-        <v>0.01660913226191455</v>
+        <v>0.004972829930640427</v>
       </c>
       <c r="T23">
-        <v>0.01660913226191455</v>
+        <v>0.004972829930640426</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H24">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I24">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J24">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>10.39479790045444</v>
+        <v>3.746288962402889</v>
       </c>
       <c r="R24">
-        <v>93.55318110409</v>
+        <v>33.716600661626</v>
       </c>
       <c r="S24">
-        <v>0.001362432481118973</v>
+        <v>0.0004046287680175152</v>
       </c>
       <c r="T24">
-        <v>0.001362432481118974</v>
+        <v>0.0004046287680175151</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H25">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I25">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J25">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>11.54148200929333</v>
+        <v>13.27740312350867</v>
       </c>
       <c r="R25">
-        <v>103.87333808364</v>
+        <v>119.496628111578</v>
       </c>
       <c r="S25">
-        <v>0.001512726858212805</v>
+        <v>0.001434064302634926</v>
       </c>
       <c r="T25">
-        <v>0.001512726858212805</v>
+        <v>0.001434064302634926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H26">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I26">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J26">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>44.687227796566</v>
+        <v>39.63506272673733</v>
       </c>
       <c r="R26">
-        <v>402.185050169094</v>
+        <v>356.715564540636</v>
       </c>
       <c r="S26">
-        <v>0.005857096138304185</v>
+        <v>0.004280899514790801</v>
       </c>
       <c r="T26">
-        <v>0.005857096138304185</v>
+        <v>0.004280899514790801</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H27">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I27">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J27">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>394.623157057964</v>
+        <v>341.9079326135529</v>
       </c>
       <c r="R27">
-        <v>3551.608413521676</v>
+        <v>3077.171393521976</v>
       </c>
       <c r="S27">
-        <v>0.05172273786621471</v>
+        <v>0.03692875454543202</v>
       </c>
       <c r="T27">
-        <v>0.05172273786621471</v>
+        <v>0.03692875454543202</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H28">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I28">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J28">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>79.51469226015402</v>
+        <v>120.982478519836</v>
       </c>
       <c r="R28">
-        <v>715.632230341386</v>
+        <v>1088.842306678524</v>
       </c>
       <c r="S28">
-        <v>0.01042188607213586</v>
+        <v>0.01306706229190288</v>
       </c>
       <c r="T28">
-        <v>0.01042188607213586</v>
+        <v>0.01306706229190287</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H29">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I29">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J29">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>322.364027103852</v>
+        <v>177.1606694589413</v>
       </c>
       <c r="R29">
-        <v>2901.276243934668</v>
+        <v>1594.446025130472</v>
       </c>
       <c r="S29">
-        <v>0.04225182879711437</v>
+        <v>0.0191347501871161</v>
       </c>
       <c r="T29">
-        <v>0.04225182879711437</v>
+        <v>0.0191347501871161</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H30">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I30">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J30">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>26.443237030372</v>
+        <v>14.41519304383244</v>
       </c>
       <c r="R30">
-        <v>237.989133273348</v>
+        <v>129.736737394492</v>
       </c>
       <c r="S30">
-        <v>0.003465880277915917</v>
+        <v>0.001556954591756688</v>
       </c>
       <c r="T30">
-        <v>0.003465880277915917</v>
+        <v>0.001556954591756688</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H31">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I31">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J31">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>29.360276878512</v>
+        <v>51.08957986609733</v>
       </c>
       <c r="R31">
-        <v>264.242491906608</v>
+        <v>459.806218794876</v>
       </c>
       <c r="S31">
-        <v>0.003848212851948024</v>
+        <v>0.005518077747663139</v>
       </c>
       <c r="T31">
-        <v>0.003848212851948024</v>
+        <v>0.005518077747663139</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H32">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I32">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J32">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N32">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q32">
-        <v>103.7462173370079</v>
+        <v>282.3751798910466</v>
       </c>
       <c r="R32">
-        <v>933.7159560330709</v>
+        <v>2541.37661901942</v>
       </c>
       <c r="S32">
-        <v>0.01359788017494678</v>
+        <v>0.03049874750845522</v>
       </c>
       <c r="T32">
-        <v>0.01359788017494678</v>
+        <v>0.03049874750845522</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H33">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I33">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J33">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>36.503158</v>
       </c>
       <c r="O33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q33">
-        <v>916.1602058809704</v>
+        <v>2435.881447786857</v>
       </c>
       <c r="R33">
-        <v>8245.441852928734</v>
+        <v>21922.93303008172</v>
       </c>
       <c r="S33">
-        <v>0.1200799125056881</v>
+        <v>0.2630944166737556</v>
       </c>
       <c r="T33">
-        <v>0.1200799125056881</v>
+        <v>0.2630944166737556</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H34">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I34">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J34">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N34">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O34">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P34">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q34">
-        <v>184.6019310542499</v>
+        <v>861.92494184342</v>
       </c>
       <c r="R34">
-        <v>1661.417379488249</v>
+        <v>7757.32447659078</v>
       </c>
       <c r="S34">
-        <v>0.02419553216466093</v>
+        <v>0.09309469473437929</v>
       </c>
       <c r="T34">
-        <v>0.02419553216466092</v>
+        <v>0.09309469473437927</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H35">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I35">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J35">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N35">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q35">
-        <v>748.4028449873847</v>
+        <v>1262.159625001427</v>
       </c>
       <c r="R35">
-        <v>6735.625604886462</v>
+        <v>11359.43662501284</v>
       </c>
       <c r="S35">
-        <v>0.09809217598430496</v>
+        <v>0.1363231985656031</v>
       </c>
       <c r="T35">
-        <v>0.09809217598430496</v>
+        <v>0.136323198565603</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H36">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I36">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J36">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N36">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O36">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P36">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q36">
-        <v>61.39082577545356</v>
+        <v>102.6992881777489</v>
       </c>
       <c r="R36">
-        <v>552.5174319790819</v>
+        <v>924.2935935997399</v>
       </c>
       <c r="S36">
-        <v>0.008046414743237786</v>
+        <v>0.01109233347151754</v>
       </c>
       <c r="T36">
-        <v>0.008046414743237786</v>
+        <v>0.01109233347151754</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H37">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I37">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J37">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N37">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q37">
-        <v>68.16304828707467</v>
+        <v>363.9814929702466</v>
       </c>
       <c r="R37">
-        <v>613.4674345836719</v>
+        <v>3275.83343673222</v>
       </c>
       <c r="S37">
-        <v>0.008934041035500219</v>
+        <v>0.03931287323529423</v>
       </c>
       <c r="T37">
-        <v>0.008934041035500219</v>
+        <v>0.03931287323529423</v>
       </c>
     </row>
   </sheetData>
